--- a/Doc referencia/Centro de Gasto.xlsx
+++ b/Doc referencia/Centro de Gasto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Aplicativos Desenvolvidos\dashboard_financeiro\Doc referencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE1FC46A-A1B2-4265-AC0C-73FEC1B3EB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA56956-F557-4D82-9E44-4A970FB09520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EEAD11E0-273B-4B37-A580-8FF1F62683A0}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="19420" windowHeight="11500" xr2:uid="{EEAD11E0-273B-4B37-A580-8FF1F62683A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1961" uniqueCount="886">
   <si>
     <t>ATIVO</t>
   </si>
@@ -2604,6 +2604,96 @@
   </si>
   <si>
     <t>DESCRIÇÃO CENTRO DE GASTO</t>
+  </si>
+  <si>
+    <t>REGIONAL</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>NORTE</t>
+  </si>
+  <si>
+    <t>BASEAL</t>
+  </si>
+  <si>
+    <t>SUDESTE</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>NORDESTE</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>ATIVOS</t>
+  </si>
+  <si>
+    <t>PROJETOS</t>
+  </si>
+  <si>
+    <t>CONTRATOS</t>
+  </si>
+  <si>
+    <t>ARACRUZ</t>
+  </si>
+  <si>
+    <t>ATALAIA</t>
+  </si>
+  <si>
+    <t>CAMAÇARI</t>
+  </si>
+  <si>
+    <t>CATU</t>
+  </si>
+  <si>
+    <t>COARI</t>
+  </si>
+  <si>
+    <t>ITABUNA</t>
+  </si>
+  <si>
+    <t>JABOATÃO</t>
+  </si>
+  <si>
+    <t>JUARUNA</t>
+  </si>
+  <si>
+    <t>MACAÍBA</t>
+  </si>
+  <si>
+    <t>MANAUS</t>
+  </si>
+  <si>
+    <t>MOSSORÓ</t>
+  </si>
+  <si>
+    <t>PILAR</t>
+  </si>
+  <si>
+    <t>PIUMA</t>
+  </si>
+  <si>
+    <t>PRADO</t>
+  </si>
+  <si>
+    <t>VITÓRIA</t>
+  </si>
+  <si>
+    <t>JOÃO PESSOA</t>
+  </si>
+  <si>
+    <t>MARACANAÚ</t>
+  </si>
+  <si>
+    <t>DIVERSOS</t>
+  </si>
+  <si>
+    <t>MOÇORO</t>
   </si>
 </sst>
 </file>
@@ -2644,12 +2734,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2674,7 +2770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2687,12 +2783,13 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula 2" xfId="1" xr:uid="{E4736D44-34C6-4AB2-9137-B5EB129A0D63}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2710,6 +2807,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2807,12 +2918,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D2F5CD7-1FF3-4840-96FB-9A6D1CE403A6}" name="Tabela1" displayName="Tabela1" ref="A1:C433" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" headerRowCellStyle="Vírgula 2">
-  <autoFilter ref="A1:C433" xr:uid="{4D2F5CD7-1FF3-4840-96FB-9A6D1CE403A6}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E9482557-FC1A-4043-942B-64DADD74E78D}" name="CENTRO DE GASTO" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{70523FAA-1920-417E-9839-29A375A65F05}" name="DESCRIÇÃO CENTRO DE GASTO" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{492827FD-1600-4710-AE1C-4BF2B22438BA}" name="ATIVO" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4D2F5CD7-1FF3-4840-96FB-9A6D1CE403A6}" name="Tabela1" displayName="Tabela1" ref="A1:E433" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" headerRowCellStyle="Vírgula 2">
+  <autoFilter ref="A1:E433" xr:uid="{4D2F5CD7-1FF3-4840-96FB-9A6D1CE403A6}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="COS"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BASEAL"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{E9482557-FC1A-4043-942B-64DADD74E78D}" name="CENTRO DE GASTO" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{70523FAA-1920-417E-9839-29A375A65F05}" name="DESCRIÇÃO CENTRO DE GASTO" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{492827FD-1600-4710-AE1C-4BF2B22438BA}" name="ATIVO" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{60F320F4-0D08-4973-9B2F-2E09C16642E9}" name="REGIONAL" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{F290DBEF-5C68-47F4-86B2-4FCE80BF7999}" name="BASE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3135,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC157E7-A97B-4AB1-BF2B-BD2FFA788EE1}">
-  <dimension ref="A1:C433"/>
+  <dimension ref="A1:E433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C384" sqref="C384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3146,9 +3270,11 @@
     <col min="1" max="1" width="22.1796875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>854</v>
       </c>
@@ -3158,8 +3284,14 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3169,8 +3301,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -3180,8 +3315,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -3191,8 +3329,11 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3202,8 +3343,11 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -3213,8 +3357,11 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
@@ -3224,8 +3371,11 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
@@ -3235,8 +3385,11 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -3246,8 +3399,11 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
@@ -3257,8 +3413,11 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -3268,8 +3427,11 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
@@ -3279,8 +3441,11 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -3290,8 +3455,11 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
@@ -3301,8 +3469,11 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -3312,8 +3483,11 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -3323,8 +3497,11 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -3334,8 +3511,11 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
@@ -3345,8 +3525,11 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -3356,8 +3539,11 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
@@ -3367,8 +3553,11 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
@@ -3378,8 +3567,11 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
@@ -3389,8 +3581,11 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
@@ -3400,8 +3595,11 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -3411,8 +3609,11 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>48</v>
       </c>
@@ -3422,8 +3623,11 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>50</v>
       </c>
@@ -3433,8 +3637,11 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>52</v>
       </c>
@@ -3444,8 +3651,11 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -3455,8 +3665,11 @@
       <c r="C28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>56</v>
       </c>
@@ -3466,8 +3679,11 @@
       <c r="C29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -3477,8 +3693,11 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>60</v>
       </c>
@@ -3488,8 +3707,11 @@
       <c r="C31" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>62</v>
       </c>
@@ -3499,8 +3721,11 @@
       <c r="C32" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D32" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>64</v>
       </c>
@@ -3510,8 +3735,11 @@
       <c r="C33" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D33" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>66</v>
       </c>
@@ -3521,8 +3749,11 @@
       <c r="C34" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>68</v>
       </c>
@@ -3532,8 +3763,11 @@
       <c r="C35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>70</v>
       </c>
@@ -3543,8 +3777,11 @@
       <c r="C36" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>72</v>
       </c>
@@ -3554,8 +3791,11 @@
       <c r="C37" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
@@ -3565,8 +3805,11 @@
       <c r="C38" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>76</v>
       </c>
@@ -3576,8 +3819,11 @@
       <c r="C39" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>78</v>
       </c>
@@ -3587,8 +3833,11 @@
       <c r="C40" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>80</v>
       </c>
@@ -3598,8 +3847,14 @@
       <c r="C41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41" t="s">
+        <v>858</v>
+      </c>
+      <c r="E41" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>83</v>
       </c>
@@ -3609,8 +3864,14 @@
       <c r="C42" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42" t="s">
+        <v>858</v>
+      </c>
+      <c r="E42" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>85</v>
       </c>
@@ -3620,8 +3881,14 @@
       <c r="C43" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43" t="s">
+        <v>858</v>
+      </c>
+      <c r="E43" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>87</v>
       </c>
@@ -3631,8 +3898,14 @@
       <c r="C44" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44" t="s">
+        <v>858</v>
+      </c>
+      <c r="E44" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>89</v>
       </c>
@@ -3642,8 +3915,14 @@
       <c r="C45" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>858</v>
+      </c>
+      <c r="E45" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>91</v>
       </c>
@@ -3653,8 +3932,14 @@
       <c r="C46" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>858</v>
+      </c>
+      <c r="E46" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>92</v>
       </c>
@@ -3664,8 +3949,14 @@
       <c r="C47" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D47" t="s">
+        <v>858</v>
+      </c>
+      <c r="E47" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
@@ -3675,8 +3966,14 @@
       <c r="C48" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D48" t="s">
+        <v>858</v>
+      </c>
+      <c r="E48" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -3686,8 +3983,11 @@
       <c r="C49" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D49" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -3697,8 +3997,11 @@
       <c r="C50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D50" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>101</v>
       </c>
@@ -3708,8 +4011,11 @@
       <c r="C51" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D51" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>103</v>
       </c>
@@ -3719,8 +4025,11 @@
       <c r="C52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D52" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>105</v>
       </c>
@@ -3730,8 +4039,11 @@
       <c r="C53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D53" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>107</v>
       </c>
@@ -3741,8 +4053,11 @@
       <c r="C54" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D54" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>109</v>
       </c>
@@ -3752,8 +4067,11 @@
       <c r="C55" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D55" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>111</v>
       </c>
@@ -3763,8 +4081,11 @@
       <c r="C56" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D56" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>113</v>
       </c>
@@ -3774,8 +4095,11 @@
       <c r="C57" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D57" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>115</v>
       </c>
@@ -3785,8 +4109,11 @@
       <c r="C58" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D58" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>117</v>
       </c>
@@ -3796,8 +4123,11 @@
       <c r="C59" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>119</v>
       </c>
@@ -3807,8 +4137,11 @@
       <c r="C60" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>121</v>
       </c>
@@ -3818,8 +4151,11 @@
       <c r="C61" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>123</v>
       </c>
@@ -3829,8 +4165,11 @@
       <c r="C62" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>125</v>
       </c>
@@ -3840,8 +4179,11 @@
       <c r="C63" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D63" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>127</v>
       </c>
@@ -3851,8 +4193,11 @@
       <c r="C64" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>129</v>
       </c>
@@ -3862,8 +4207,11 @@
       <c r="C65" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>131</v>
       </c>
@@ -3873,8 +4221,11 @@
       <c r="C66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>133</v>
       </c>
@@ -3884,8 +4235,11 @@
       <c r="C67" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D67" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>135</v>
       </c>
@@ -3895,8 +4249,11 @@
       <c r="C68" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>137</v>
       </c>
@@ -3906,8 +4263,11 @@
       <c r="C69" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>139</v>
       </c>
@@ -3917,8 +4277,11 @@
       <c r="C70" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>141</v>
       </c>
@@ -3928,8 +4291,11 @@
       <c r="C71" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D71" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>143</v>
       </c>
@@ -3939,8 +4305,11 @@
       <c r="C72" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>145</v>
       </c>
@@ -3950,8 +4319,11 @@
       <c r="C73" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>147</v>
       </c>
@@ -3961,8 +4333,11 @@
       <c r="C74" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>149</v>
       </c>
@@ -3972,8 +4347,11 @@
       <c r="C75" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>151</v>
       </c>
@@ -3983,8 +4361,11 @@
       <c r="C76" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D76" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>153</v>
       </c>
@@ -3994,8 +4375,11 @@
       <c r="C77" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D77" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>155</v>
       </c>
@@ -4005,8 +4389,11 @@
       <c r="C78" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D78" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>157</v>
       </c>
@@ -4016,8 +4403,11 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D79" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>159</v>
       </c>
@@ -4027,8 +4417,11 @@
       <c r="C80" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D80" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>161</v>
       </c>
@@ -4038,8 +4431,11 @@
       <c r="C81" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D81" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>163</v>
       </c>
@@ -4049,8 +4445,11 @@
       <c r="C82" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>165</v>
       </c>
@@ -4060,8 +4459,11 @@
       <c r="C83" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D83" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>167</v>
       </c>
@@ -4071,8 +4473,11 @@
       <c r="C84" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D84" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>169</v>
       </c>
@@ -4082,8 +4487,11 @@
       <c r="C85" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>171</v>
       </c>
@@ -4093,8 +4501,11 @@
       <c r="C86" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D86" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>173</v>
       </c>
@@ -4104,8 +4515,11 @@
       <c r="C87" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D87" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>175</v>
       </c>
@@ -4115,8 +4529,11 @@
       <c r="C88" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D88" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>177</v>
       </c>
@@ -4126,8 +4543,11 @@
       <c r="C89" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D89" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>179</v>
       </c>
@@ -4137,8 +4557,11 @@
       <c r="C90" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D90" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>181</v>
       </c>
@@ -4148,8 +4571,11 @@
       <c r="C91" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D91" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>183</v>
       </c>
@@ -4159,8 +4585,11 @@
       <c r="C92" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D92" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>185</v>
       </c>
@@ -4170,8 +4599,11 @@
       <c r="C93" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D93" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>187</v>
       </c>
@@ -4181,8 +4613,11 @@
       <c r="C94" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D94" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>190</v>
       </c>
@@ -4192,8 +4627,11 @@
       <c r="C95" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D95" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>192</v>
       </c>
@@ -4203,8 +4641,11 @@
       <c r="C96" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D96" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>194</v>
       </c>
@@ -4214,8 +4655,11 @@
       <c r="C97" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D97" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>196</v>
       </c>
@@ -4225,8 +4669,11 @@
       <c r="C98" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D98" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>198</v>
       </c>
@@ -4236,8 +4683,11 @@
       <c r="C99" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D99" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>200</v>
       </c>
@@ -4247,8 +4697,11 @@
       <c r="C100" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D100" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>202</v>
       </c>
@@ -4258,8 +4711,11 @@
       <c r="C101" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D101" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>204</v>
       </c>
@@ -4269,8 +4725,11 @@
       <c r="C102" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D102" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>206</v>
       </c>
@@ -4280,8 +4739,11 @@
       <c r="C103" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D103" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>208</v>
       </c>
@@ -4291,8 +4753,11 @@
       <c r="C104" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D104" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>210</v>
       </c>
@@ -4302,8 +4767,11 @@
       <c r="C105" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D105" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>212</v>
       </c>
@@ -4313,8 +4781,11 @@
       <c r="C106" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D106" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>214</v>
       </c>
@@ -4324,8 +4795,11 @@
       <c r="C107" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D107" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>216</v>
       </c>
@@ -4335,8 +4809,11 @@
       <c r="C108" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D108" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>218</v>
       </c>
@@ -4346,8 +4823,11 @@
       <c r="C109" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D109" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>220</v>
       </c>
@@ -4357,8 +4837,11 @@
       <c r="C110" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D110" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>222</v>
       </c>
@@ -4368,8 +4851,11 @@
       <c r="C111" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D111" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>224</v>
       </c>
@@ -4379,8 +4865,11 @@
       <c r="C112" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D112" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>226</v>
       </c>
@@ -4390,8 +4879,11 @@
       <c r="C113" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D113" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>228</v>
       </c>
@@ -4401,8 +4893,11 @@
       <c r="C114" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D114" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>230</v>
       </c>
@@ -4412,8 +4907,11 @@
       <c r="C115" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D115" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>232</v>
       </c>
@@ -4423,8 +4921,11 @@
       <c r="C116" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D116" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>234</v>
       </c>
@@ -4434,8 +4935,11 @@
       <c r="C117" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D117" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>236</v>
       </c>
@@ -4445,8 +4949,11 @@
       <c r="C118" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D118" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>238</v>
       </c>
@@ -4456,8 +4963,11 @@
       <c r="C119" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>240</v>
       </c>
@@ -4467,8 +4977,11 @@
       <c r="C120" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D120" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>242</v>
       </c>
@@ -4478,8 +4991,11 @@
       <c r="C121" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>244</v>
       </c>
@@ -4489,8 +5005,11 @@
       <c r="C122" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>246</v>
       </c>
@@ -4500,8 +5019,11 @@
       <c r="C123" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>248</v>
       </c>
@@ -4511,8 +5033,11 @@
       <c r="C124" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>250</v>
       </c>
@@ -4522,8 +5047,11 @@
       <c r="C125" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>252</v>
       </c>
@@ -4533,8 +5061,11 @@
       <c r="C126" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>254</v>
       </c>
@@ -4544,8 +5075,11 @@
       <c r="C127" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>256</v>
       </c>
@@ -4555,8 +5089,14 @@
       <c r="C128" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>859</v>
+      </c>
+      <c r="E128" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>259</v>
       </c>
@@ -4566,8 +5106,14 @@
       <c r="C129" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>859</v>
+      </c>
+      <c r="E129" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>261</v>
       </c>
@@ -4577,19 +5123,31 @@
       <c r="C130" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>859</v>
+      </c>
+      <c r="E130" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>263</v>
       </c>
       <c r="B131" t="s">
         <v>264</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D131" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E131" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>265</v>
       </c>
@@ -4599,8 +5157,14 @@
       <c r="C132" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>862</v>
+      </c>
+      <c r="E132" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>267</v>
       </c>
@@ -4610,41 +5174,65 @@
       <c r="C133" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>859</v>
+      </c>
+      <c r="E133" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>269</v>
       </c>
       <c r="B134" t="s">
         <v>270</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D134" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E134" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>271</v>
       </c>
       <c r="B135" t="s">
         <v>272</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D135" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>273</v>
       </c>
       <c r="B136" t="s">
         <v>274</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D136" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="E136" s="6" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>275</v>
       </c>
@@ -4654,8 +5242,14 @@
       <c r="C137" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>859</v>
+      </c>
+      <c r="E137" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>277</v>
       </c>
@@ -4665,8 +5259,14 @@
       <c r="C138" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>859</v>
+      </c>
+      <c r="E138" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>279</v>
       </c>
@@ -4676,8 +5276,14 @@
       <c r="C139" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
+        <v>862</v>
+      </c>
+      <c r="E139" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>280</v>
       </c>
@@ -4687,8 +5293,14 @@
       <c r="C140" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>862</v>
+      </c>
+      <c r="E140" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>282</v>
       </c>
@@ -4698,8 +5310,14 @@
       <c r="C141" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D141" t="s">
+        <v>862</v>
+      </c>
+      <c r="E141" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>284</v>
       </c>
@@ -4709,8 +5327,14 @@
       <c r="C142" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>862</v>
+      </c>
+      <c r="E142" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>286</v>
       </c>
@@ -4720,8 +5344,14 @@
       <c r="C143" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D143" t="s">
+        <v>859</v>
+      </c>
+      <c r="E143" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>288</v>
       </c>
@@ -4731,8 +5361,14 @@
       <c r="C144" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>859</v>
+      </c>
+      <c r="E144" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>290</v>
       </c>
@@ -4742,8 +5378,14 @@
       <c r="C145" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
+        <v>859</v>
+      </c>
+      <c r="E145" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>293</v>
       </c>
@@ -4753,8 +5395,14 @@
       <c r="C146" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
+        <v>859</v>
+      </c>
+      <c r="E146" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>295</v>
       </c>
@@ -4764,8 +5412,14 @@
       <c r="C147" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D147" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>297</v>
       </c>
@@ -4775,8 +5429,14 @@
       <c r="C148" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>859</v>
+      </c>
+      <c r="E148" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>298</v>
       </c>
@@ -4786,8 +5446,14 @@
       <c r="C149" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D149" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>299</v>
       </c>
@@ -4797,8 +5463,14 @@
       <c r="C150" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D150" t="s">
+        <v>862</v>
+      </c>
+      <c r="E150" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>301</v>
       </c>
@@ -4808,8 +5480,14 @@
       <c r="C151" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D151" t="s">
+        <v>859</v>
+      </c>
+      <c r="E151" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>302</v>
       </c>
@@ -4819,8 +5497,14 @@
       <c r="C152" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D152" t="s">
+        <v>859</v>
+      </c>
+      <c r="E152" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>305</v>
       </c>
@@ -4830,8 +5514,14 @@
       <c r="C153" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D153" t="s">
+        <v>859</v>
+      </c>
+      <c r="E153" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>307</v>
       </c>
@@ -4841,8 +5531,14 @@
       <c r="C154" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D154" t="s">
+        <v>859</v>
+      </c>
+      <c r="E154" s="6" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>309</v>
       </c>
@@ -4852,8 +5548,14 @@
       <c r="C155" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D155" t="s">
+        <v>859</v>
+      </c>
+      <c r="E155" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>311</v>
       </c>
@@ -4863,8 +5565,14 @@
       <c r="C156" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D156" t="s">
+        <v>859</v>
+      </c>
+      <c r="E156" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>313</v>
       </c>
@@ -4874,8 +5582,14 @@
       <c r="C157" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D157" t="s">
+        <v>859</v>
+      </c>
+      <c r="E157" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>315</v>
       </c>
@@ -4885,8 +5599,12 @@
       <c r="C158" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D158" t="s">
+        <v>859</v>
+      </c>
+      <c r="E158" s="6"/>
+    </row>
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>317</v>
       </c>
@@ -4896,8 +5614,12 @@
       <c r="C159" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D159" t="s">
+        <v>859</v>
+      </c>
+      <c r="E159" s="6"/>
+    </row>
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>319</v>
       </c>
@@ -4907,8 +5629,12 @@
       <c r="C160" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D160" t="s">
+        <v>859</v>
+      </c>
+      <c r="E160" s="6"/>
+    </row>
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>321</v>
       </c>
@@ -4918,8 +5644,14 @@
       <c r="C161" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D161" t="s">
+        <v>859</v>
+      </c>
+      <c r="E161" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>323</v>
       </c>
@@ -4929,8 +5661,14 @@
       <c r="C162" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D162" t="s">
+        <v>859</v>
+      </c>
+      <c r="E162" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>325</v>
       </c>
@@ -4940,8 +5678,14 @@
       <c r="C163" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D163" t="s">
+        <v>859</v>
+      </c>
+      <c r="E163" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>327</v>
       </c>
@@ -4951,8 +5695,12 @@
       <c r="C164" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D164" t="s">
+        <v>859</v>
+      </c>
+      <c r="E164" s="6"/>
+    </row>
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>329</v>
       </c>
@@ -4962,8 +5710,12 @@
       <c r="C165" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D165" t="s">
+        <v>859</v>
+      </c>
+      <c r="E165" s="6"/>
+    </row>
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>331</v>
       </c>
@@ -4973,8 +5725,11 @@
       <c r="C166" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D166" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>333</v>
       </c>
@@ -4984,8 +5739,14 @@
       <c r="C167" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D167" t="s">
+        <v>859</v>
+      </c>
+      <c r="E167" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>335</v>
       </c>
@@ -4995,8 +5756,12 @@
       <c r="C168" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D168" t="s">
+        <v>859</v>
+      </c>
+      <c r="E168" s="6"/>
+    </row>
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>337</v>
       </c>
@@ -5006,8 +5771,14 @@
       <c r="C169" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D169" t="s">
+        <v>859</v>
+      </c>
+      <c r="E169" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>339</v>
       </c>
@@ -5017,8 +5788,14 @@
       <c r="C170" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D170" t="s">
+        <v>859</v>
+      </c>
+      <c r="E170" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>341</v>
       </c>
@@ -5028,8 +5805,14 @@
       <c r="C171" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D171" t="s">
+        <v>859</v>
+      </c>
+      <c r="E171" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>343</v>
       </c>
@@ -5039,8 +5822,14 @@
       <c r="C172" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D172" t="s">
+        <v>859</v>
+      </c>
+      <c r="E172" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>344</v>
       </c>
@@ -5050,8 +5839,14 @@
       <c r="C173" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D173" t="s">
+        <v>859</v>
+      </c>
+      <c r="E173" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>346</v>
       </c>
@@ -5061,8 +5856,14 @@
       <c r="C174" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D174" t="s">
+        <v>859</v>
+      </c>
+      <c r="E174" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>348</v>
       </c>
@@ -5072,8 +5873,14 @@
       <c r="C175" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D175" t="s">
+        <v>859</v>
+      </c>
+      <c r="E175" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>350</v>
       </c>
@@ -5083,8 +5890,14 @@
       <c r="C176" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D176" t="s">
+        <v>859</v>
+      </c>
+      <c r="E176" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>351</v>
       </c>
@@ -5094,8 +5907,14 @@
       <c r="C177" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D177" t="s">
+        <v>859</v>
+      </c>
+      <c r="E177" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>353</v>
       </c>
@@ -5105,8 +5924,14 @@
       <c r="C178" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D178" t="s">
+        <v>859</v>
+      </c>
+      <c r="E178" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>355</v>
       </c>
@@ -5116,8 +5941,14 @@
       <c r="C179" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D179" t="s">
+        <v>859</v>
+      </c>
+      <c r="E179" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>357</v>
       </c>
@@ -5127,8 +5958,14 @@
       <c r="C180" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D180" t="s">
+        <v>859</v>
+      </c>
+      <c r="E180" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>359</v>
       </c>
@@ -5138,8 +5975,14 @@
       <c r="C181" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D181" t="s">
+        <v>859</v>
+      </c>
+      <c r="E181" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>361</v>
       </c>
@@ -5149,8 +5992,14 @@
       <c r="C182" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D182" t="s">
+        <v>859</v>
+      </c>
+      <c r="E182" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>363</v>
       </c>
@@ -5160,8 +6009,14 @@
       <c r="C183" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D183" t="s">
+        <v>859</v>
+      </c>
+      <c r="E183" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>365</v>
       </c>
@@ -5171,8 +6026,14 @@
       <c r="C184" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D184" t="s">
+        <v>859</v>
+      </c>
+      <c r="E184" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>367</v>
       </c>
@@ -5182,8 +6043,14 @@
       <c r="C185" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D185" t="s">
+        <v>859</v>
+      </c>
+      <c r="E185" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>369</v>
       </c>
@@ -5193,8 +6060,14 @@
       <c r="C186" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D186" t="s">
+        <v>859</v>
+      </c>
+      <c r="E186" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>371</v>
       </c>
@@ -5204,8 +6077,14 @@
       <c r="C187" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D187" t="s">
+        <v>859</v>
+      </c>
+      <c r="E187" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>373</v>
       </c>
@@ -5215,8 +6094,14 @@
       <c r="C188" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D188" t="s">
+        <v>859</v>
+      </c>
+      <c r="E188" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>375</v>
       </c>
@@ -5226,8 +6111,14 @@
       <c r="C189" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D189" t="s">
+        <v>859</v>
+      </c>
+      <c r="E189" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>377</v>
       </c>
@@ -5237,8 +6128,14 @@
       <c r="C190" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D190" t="s">
+        <v>859</v>
+      </c>
+      <c r="E190" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>379</v>
       </c>
@@ -5248,8 +6145,14 @@
       <c r="C191" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D191" t="s">
+        <v>859</v>
+      </c>
+      <c r="E191" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>381</v>
       </c>
@@ -5259,8 +6162,14 @@
       <c r="C192" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D192" t="s">
+        <v>859</v>
+      </c>
+      <c r="E192" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>383</v>
       </c>
@@ -5270,8 +6179,14 @@
       <c r="C193" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D193" t="s">
+        <v>859</v>
+      </c>
+      <c r="E193" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>384</v>
       </c>
@@ -5281,8 +6196,14 @@
       <c r="C194" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D194" t="s">
+        <v>859</v>
+      </c>
+      <c r="E194" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>385</v>
       </c>
@@ -5292,8 +6213,14 @@
       <c r="C195" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D195" t="s">
+        <v>859</v>
+      </c>
+      <c r="E195" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>387</v>
       </c>
@@ -5303,8 +6230,14 @@
       <c r="C196" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D196" t="s">
+        <v>859</v>
+      </c>
+      <c r="E196" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>389</v>
       </c>
@@ -5314,8 +6247,14 @@
       <c r="C197" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D197" t="s">
+        <v>859</v>
+      </c>
+      <c r="E197" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>391</v>
       </c>
@@ -5325,8 +6264,14 @@
       <c r="C198" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D198" t="s">
+        <v>859</v>
+      </c>
+      <c r="E198" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>393</v>
       </c>
@@ -5336,8 +6281,12 @@
       <c r="C199" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D199" t="s">
+        <v>859</v>
+      </c>
+      <c r="E199" s="6"/>
+    </row>
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>394</v>
       </c>
@@ -5347,8 +6296,14 @@
       <c r="C200" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D200" t="s">
+        <v>859</v>
+      </c>
+      <c r="E200" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>396</v>
       </c>
@@ -5358,8 +6313,14 @@
       <c r="C201" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D201" t="s">
+        <v>859</v>
+      </c>
+      <c r="E201" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>398</v>
       </c>
@@ -5369,8 +6330,14 @@
       <c r="C202" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D202" t="s">
+        <v>859</v>
+      </c>
+      <c r="E202" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>399</v>
       </c>
@@ -5380,8 +6347,14 @@
       <c r="C203" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D203" t="s">
+        <v>859</v>
+      </c>
+      <c r="E203" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>401</v>
       </c>
@@ -5391,8 +6364,14 @@
       <c r="C204" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D204" t="s">
+        <v>859</v>
+      </c>
+      <c r="E204" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>403</v>
       </c>
@@ -5402,8 +6381,14 @@
       <c r="C205" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D205" t="s">
+        <v>859</v>
+      </c>
+      <c r="E205" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>405</v>
       </c>
@@ -5413,8 +6398,14 @@
       <c r="C206" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D206" t="s">
+        <v>859</v>
+      </c>
+      <c r="E206" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>407</v>
       </c>
@@ -5424,8 +6415,14 @@
       <c r="C207" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D207" t="s">
+        <v>859</v>
+      </c>
+      <c r="E207" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>410</v>
       </c>
@@ -5435,8 +6432,14 @@
       <c r="C208" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D208" t="s">
+        <v>859</v>
+      </c>
+      <c r="E208" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>412</v>
       </c>
@@ -5446,8 +6449,12 @@
       <c r="C209" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D209" t="s">
+        <v>859</v>
+      </c>
+      <c r="E209" s="6"/>
+    </row>
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>413</v>
       </c>
@@ -5457,8 +6464,12 @@
       <c r="C210" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D210" t="s">
+        <v>859</v>
+      </c>
+      <c r="E210" s="6"/>
+    </row>
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>414</v>
       </c>
@@ -5468,8 +6479,12 @@
       <c r="C211" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D211" t="s">
+        <v>859</v>
+      </c>
+      <c r="E211" s="6"/>
+    </row>
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>415</v>
       </c>
@@ -5479,8 +6494,14 @@
       <c r="C212" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D212" t="s">
+        <v>859</v>
+      </c>
+      <c r="E212" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>416</v>
       </c>
@@ -5490,8 +6511,14 @@
       <c r="C213" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D213" t="s">
+        <v>859</v>
+      </c>
+      <c r="E213" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>417</v>
       </c>
@@ -5501,8 +6528,11 @@
       <c r="C214" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D214" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>420</v>
       </c>
@@ -5512,8 +6542,11 @@
       <c r="C215" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D215" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>422</v>
       </c>
@@ -5523,8 +6556,11 @@
       <c r="C216" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D216" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>424</v>
       </c>
@@ -5534,8 +6570,11 @@
       <c r="C217" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D217" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>426</v>
       </c>
@@ -5545,8 +6584,11 @@
       <c r="C218" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D218" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>428</v>
       </c>
@@ -5556,8 +6598,11 @@
       <c r="C219" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D219" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>430</v>
       </c>
@@ -5567,8 +6612,11 @@
       <c r="C220" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D220" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>432</v>
       </c>
@@ -5578,8 +6626,11 @@
       <c r="C221" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D221" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>434</v>
       </c>
@@ -5589,8 +6640,11 @@
       <c r="C222" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D222" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>436</v>
       </c>
@@ -5600,8 +6654,11 @@
       <c r="C223" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D223" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>438</v>
       </c>
@@ -5611,8 +6668,11 @@
       <c r="C224" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D224" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>440</v>
       </c>
@@ -5622,8 +6682,11 @@
       <c r="C225" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D225" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>442</v>
       </c>
@@ -5633,8 +6696,11 @@
       <c r="C226" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D226" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>444</v>
       </c>
@@ -5644,8 +6710,11 @@
       <c r="C227" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D227" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>446</v>
       </c>
@@ -5655,8 +6724,11 @@
       <c r="C228" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D228" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>448</v>
       </c>
@@ -5666,8 +6738,11 @@
       <c r="C229" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D229" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>450</v>
       </c>
@@ -5677,8 +6752,11 @@
       <c r="C230" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D230" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>452</v>
       </c>
@@ -5688,8 +6766,11 @@
       <c r="C231" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D231" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>454</v>
       </c>
@@ -5699,8 +6780,11 @@
       <c r="C232" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D232" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>456</v>
       </c>
@@ -5710,8 +6794,11 @@
       <c r="C233" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D233" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>458</v>
       </c>
@@ -5721,8 +6808,11 @@
       <c r="C234" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D234" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>461</v>
       </c>
@@ -5732,8 +6822,11 @@
       <c r="C235" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D235" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>463</v>
       </c>
@@ -5743,8 +6836,11 @@
       <c r="C236" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D236" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>465</v>
       </c>
@@ -5754,8 +6850,11 @@
       <c r="C237" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D237" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>467</v>
       </c>
@@ -5765,8 +6864,11 @@
       <c r="C238" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D238" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>469</v>
       </c>
@@ -5776,8 +6878,11 @@
       <c r="C239" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D239" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>471</v>
       </c>
@@ -5787,8 +6892,11 @@
       <c r="C240" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D240" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>473</v>
       </c>
@@ -5798,8 +6906,11 @@
       <c r="C241" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D241" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>475</v>
       </c>
@@ -5809,8 +6920,11 @@
       <c r="C242" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D242" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>476</v>
       </c>
@@ -5820,8 +6934,11 @@
       <c r="C243" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D243" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>478</v>
       </c>
@@ -5831,8 +6948,11 @@
       <c r="C244" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D244" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>480</v>
       </c>
@@ -5842,8 +6962,11 @@
       <c r="C245" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D245" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>482</v>
       </c>
@@ -5853,8 +6976,11 @@
       <c r="C246" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D246" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>484</v>
       </c>
@@ -5864,8 +6990,11 @@
       <c r="C247" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D247" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>486</v>
       </c>
@@ -5875,8 +7004,11 @@
       <c r="C248" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D248" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>488</v>
       </c>
@@ -5886,8 +7018,11 @@
       <c r="C249" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D249" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>490</v>
       </c>
@@ -5897,8 +7032,11 @@
       <c r="C250" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D250" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>492</v>
       </c>
@@ -5908,8 +7046,11 @@
       <c r="C251" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D251" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>494</v>
       </c>
@@ -5919,8 +7060,11 @@
       <c r="C252" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D252" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>497</v>
       </c>
@@ -5930,8 +7074,11 @@
       <c r="C253" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D253" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>499</v>
       </c>
@@ -5941,8 +7088,11 @@
       <c r="C254" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D254" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>501</v>
       </c>
@@ -5952,8 +7102,11 @@
       <c r="C255" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D255" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>503</v>
       </c>
@@ -5963,8 +7116,11 @@
       <c r="C256" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D256" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>505</v>
       </c>
@@ -5974,8 +7130,11 @@
       <c r="C257" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D257" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>507</v>
       </c>
@@ -5985,8 +7144,11 @@
       <c r="C258" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D258" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>508</v>
       </c>
@@ -5996,8 +7158,11 @@
       <c r="C259" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D259" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>510</v>
       </c>
@@ -6007,8 +7172,11 @@
       <c r="C260" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D260" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>512</v>
       </c>
@@ -6018,8 +7186,11 @@
       <c r="C261" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D261" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>514</v>
       </c>
@@ -6029,8 +7200,11 @@
       <c r="C262" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D262" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>516</v>
       </c>
@@ -6040,8 +7214,11 @@
       <c r="C263" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D263" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>518</v>
       </c>
@@ -6051,8 +7228,14 @@
       <c r="C264" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D264" t="s">
+        <v>859</v>
+      </c>
+      <c r="E264" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>521</v>
       </c>
@@ -6062,8 +7245,11 @@
       <c r="C265" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D265" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>523</v>
       </c>
@@ -6073,8 +7259,11 @@
       <c r="C266" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D266" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>525</v>
       </c>
@@ -6084,8 +7273,14 @@
       <c r="C267" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D267" t="s">
+        <v>859</v>
+      </c>
+      <c r="E267" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>527</v>
       </c>
@@ -6095,8 +7290,14 @@
       <c r="C268" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D268" t="s">
+        <v>859</v>
+      </c>
+      <c r="E268" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>529</v>
       </c>
@@ -6106,8 +7307,14 @@
       <c r="C269" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D269" t="s">
+        <v>859</v>
+      </c>
+      <c r="E269" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>531</v>
       </c>
@@ -6117,8 +7324,14 @@
       <c r="C270" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D270" t="s">
+        <v>859</v>
+      </c>
+      <c r="E270" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>533</v>
       </c>
@@ -6128,8 +7341,14 @@
       <c r="C271" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D271" t="s">
+        <v>859</v>
+      </c>
+      <c r="E271" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>535</v>
       </c>
@@ -6139,8 +7358,11 @@
       <c r="C272" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D272" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>537</v>
       </c>
@@ -6150,8 +7372,11 @@
       <c r="C273" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D273" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>539</v>
       </c>
@@ -6161,8 +7386,14 @@
       <c r="C274" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D274" t="s">
+        <v>860</v>
+      </c>
+      <c r="E274" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>541</v>
       </c>
@@ -6172,8 +7403,14 @@
       <c r="C275" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D275" t="s">
+        <v>859</v>
+      </c>
+      <c r="E275" s="6" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>543</v>
       </c>
@@ -6183,8 +7420,12 @@
       <c r="C276" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D276" t="s">
+        <v>859</v>
+      </c>
+      <c r="E276" s="6"/>
+    </row>
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>545</v>
       </c>
@@ -6194,8 +7435,12 @@
       <c r="C277" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D277" t="s">
+        <v>859</v>
+      </c>
+      <c r="E277" s="6"/>
+    </row>
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>547</v>
       </c>
@@ -6205,8 +7450,12 @@
       <c r="C278" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D278" t="s">
+        <v>859</v>
+      </c>
+      <c r="E278" s="6"/>
+    </row>
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>549</v>
       </c>
@@ -6216,8 +7465,12 @@
       <c r="C279" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D279" t="s">
+        <v>859</v>
+      </c>
+      <c r="E279" s="6"/>
+    </row>
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>551</v>
       </c>
@@ -6227,8 +7480,12 @@
       <c r="C280" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D280" t="s">
+        <v>859</v>
+      </c>
+      <c r="E280" s="6"/>
+    </row>
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>553</v>
       </c>
@@ -6238,8 +7495,12 @@
       <c r="C281" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D281" t="s">
+        <v>859</v>
+      </c>
+      <c r="E281" s="6"/>
+    </row>
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>555</v>
       </c>
@@ -6249,8 +7510,12 @@
       <c r="C282" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D282" t="s">
+        <v>859</v>
+      </c>
+      <c r="E282" s="6"/>
+    </row>
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>557</v>
       </c>
@@ -6260,8 +7525,14 @@
       <c r="C283" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D283" t="s">
+        <v>859</v>
+      </c>
+      <c r="E283" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>558</v>
       </c>
@@ -6271,8 +7542,14 @@
       <c r="C284" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D284" t="s">
+        <v>859</v>
+      </c>
+      <c r="E284" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>560</v>
       </c>
@@ -6282,8 +7559,11 @@
       <c r="C285" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D285" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>561</v>
       </c>
@@ -6293,8 +7573,11 @@
       <c r="C286" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D286" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>563</v>
       </c>
@@ -6304,8 +7587,11 @@
       <c r="C287" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D287" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>565</v>
       </c>
@@ -6315,8 +7601,14 @@
       <c r="C288" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D288" t="s">
+        <v>859</v>
+      </c>
+      <c r="E288" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>567</v>
       </c>
@@ -6326,8 +7618,14 @@
       <c r="C289" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D289" t="s">
+        <v>859</v>
+      </c>
+      <c r="E289" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>569</v>
       </c>
@@ -6337,8 +7635,11 @@
       <c r="C290" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D290" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>571</v>
       </c>
@@ -6348,8 +7649,11 @@
       <c r="C291" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D291" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>573</v>
       </c>
@@ -6359,8 +7663,11 @@
       <c r="C292" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D292" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>575</v>
       </c>
@@ -6370,8 +7677,11 @@
       <c r="C293" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D293" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>577</v>
       </c>
@@ -6381,8 +7691,14 @@
       <c r="C294" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D294" t="s">
+        <v>859</v>
+      </c>
+      <c r="E294" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>579</v>
       </c>
@@ -6392,8 +7708,14 @@
       <c r="C295" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D295" t="s">
+        <v>859</v>
+      </c>
+      <c r="E295" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>581</v>
       </c>
@@ -6403,8 +7725,14 @@
       <c r="C296" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D296" t="s">
+        <v>859</v>
+      </c>
+      <c r="E296" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>583</v>
       </c>
@@ -6414,8 +7742,14 @@
       <c r="C297" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D297" t="s">
+        <v>859</v>
+      </c>
+      <c r="E297" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>585</v>
       </c>
@@ -6425,8 +7759,14 @@
       <c r="C298" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D298" t="s">
+        <v>859</v>
+      </c>
+      <c r="E298" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>587</v>
       </c>
@@ -6436,8 +7776,14 @@
       <c r="C299" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D299" t="s">
+        <v>859</v>
+      </c>
+      <c r="E299" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>589</v>
       </c>
@@ -6447,8 +7793,14 @@
       <c r="C300" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D300" t="s">
+        <v>859</v>
+      </c>
+      <c r="E300" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>591</v>
       </c>
@@ -6458,8 +7810,14 @@
       <c r="C301" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D301" t="s">
+        <v>859</v>
+      </c>
+      <c r="E301" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>594</v>
       </c>
@@ -6469,8 +7827,14 @@
       <c r="C302" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D302" t="s">
+        <v>859</v>
+      </c>
+      <c r="E302" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>596</v>
       </c>
@@ -6480,8 +7844,12 @@
       <c r="C303" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D303" t="s">
+        <v>859</v>
+      </c>
+      <c r="E303" s="6"/>
+    </row>
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>598</v>
       </c>
@@ -6491,8 +7859,12 @@
       <c r="C304" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D304" t="s">
+        <v>859</v>
+      </c>
+      <c r="E304" s="6"/>
+    </row>
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>600</v>
       </c>
@@ -6502,8 +7874,12 @@
       <c r="C305" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D305" t="s">
+        <v>859</v>
+      </c>
+      <c r="E305" s="6"/>
+    </row>
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>602</v>
       </c>
@@ -6513,8 +7889,14 @@
       <c r="C306" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D306" t="s">
+        <v>859</v>
+      </c>
+      <c r="E306" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>605</v>
       </c>
@@ -6524,8 +7906,12 @@
       <c r="C307" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D307" t="s">
+        <v>859</v>
+      </c>
+      <c r="E307" s="6"/>
+    </row>
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>607</v>
       </c>
@@ -6535,8 +7921,12 @@
       <c r="C308" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D308" t="s">
+        <v>859</v>
+      </c>
+      <c r="E308" s="6"/>
+    </row>
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>608</v>
       </c>
@@ -6546,8 +7936,12 @@
       <c r="C309" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D309" t="s">
+        <v>859</v>
+      </c>
+      <c r="E309" s="6"/>
+    </row>
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>609</v>
       </c>
@@ -6557,8 +7951,12 @@
       <c r="C310" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D310" t="s">
+        <v>859</v>
+      </c>
+      <c r="E310" s="6"/>
+    </row>
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>610</v>
       </c>
@@ -6568,8 +7966,14 @@
       <c r="C311" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D311" t="s">
+        <v>859</v>
+      </c>
+      <c r="E311" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>612</v>
       </c>
@@ -6579,8 +7983,14 @@
       <c r="C312" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D312" t="s">
+        <v>859</v>
+      </c>
+      <c r="E312" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>614</v>
       </c>
@@ -6590,8 +8000,14 @@
       <c r="C313" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D313" t="s">
+        <v>859</v>
+      </c>
+      <c r="E313" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>616</v>
       </c>
@@ -6601,8 +8017,14 @@
       <c r="C314" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D314" t="s">
+        <v>859</v>
+      </c>
+      <c r="E314" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>618</v>
       </c>
@@ -6612,8 +8034,14 @@
       <c r="C315" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D315" t="s">
+        <v>859</v>
+      </c>
+      <c r="E315" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>620</v>
       </c>
@@ -6623,8 +8051,14 @@
       <c r="C316" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D316" t="s">
+        <v>859</v>
+      </c>
+      <c r="E316" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>622</v>
       </c>
@@ -6634,8 +8068,14 @@
       <c r="C317" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D317" t="s">
+        <v>859</v>
+      </c>
+      <c r="E317" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>625</v>
       </c>
@@ -6645,8 +8085,14 @@
       <c r="C318" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D318" t="s">
+        <v>859</v>
+      </c>
+      <c r="E318" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>627</v>
       </c>
@@ -6656,8 +8102,14 @@
       <c r="C319" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D319" t="s">
+        <v>859</v>
+      </c>
+      <c r="E319" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>629</v>
       </c>
@@ -6667,8 +8119,14 @@
       <c r="C320" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D320" t="s">
+        <v>859</v>
+      </c>
+      <c r="E320" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>631</v>
       </c>
@@ -6678,8 +8136,14 @@
       <c r="C321" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D321" t="s">
+        <v>859</v>
+      </c>
+      <c r="E321" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>632</v>
       </c>
@@ -6689,8 +8153,14 @@
       <c r="C322" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D322" t="s">
+        <v>859</v>
+      </c>
+      <c r="E322" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>634</v>
       </c>
@@ -6700,8 +8170,14 @@
       <c r="C323" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D323" t="s">
+        <v>859</v>
+      </c>
+      <c r="E323" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>636</v>
       </c>
@@ -6711,8 +8187,14 @@
       <c r="C324" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D324" t="s">
+        <v>859</v>
+      </c>
+      <c r="E324" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>638</v>
       </c>
@@ -6722,8 +8204,14 @@
       <c r="C325" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D325" t="s">
+        <v>859</v>
+      </c>
+      <c r="E325" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>640</v>
       </c>
@@ -6733,8 +8221,14 @@
       <c r="C326" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D326" t="s">
+        <v>859</v>
+      </c>
+      <c r="E326" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>642</v>
       </c>
@@ -6744,8 +8238,14 @@
       <c r="C327" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D327" t="s">
+        <v>859</v>
+      </c>
+      <c r="E327" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>645</v>
       </c>
@@ -6755,8 +8255,14 @@
       <c r="C328" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D328" t="s">
+        <v>859</v>
+      </c>
+      <c r="E328" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>647</v>
       </c>
@@ -6766,8 +8272,14 @@
       <c r="C329" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D329" t="s">
+        <v>859</v>
+      </c>
+      <c r="E329" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>649</v>
       </c>
@@ -6777,8 +8289,14 @@
       <c r="C330" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D330" t="s">
+        <v>859</v>
+      </c>
+      <c r="E330" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>651</v>
       </c>
@@ -6788,8 +8306,14 @@
       <c r="C331" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D331" t="s">
+        <v>859</v>
+      </c>
+      <c r="E331" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>653</v>
       </c>
@@ -6799,8 +8323,14 @@
       <c r="C332" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D332" t="s">
+        <v>859</v>
+      </c>
+      <c r="E332" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>655</v>
       </c>
@@ -6810,8 +8340,14 @@
       <c r="C333" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D333" t="s">
+        <v>859</v>
+      </c>
+      <c r="E333" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>657</v>
       </c>
@@ -6821,8 +8357,14 @@
       <c r="C334" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D334" t="s">
+        <v>859</v>
+      </c>
+      <c r="E334" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>659</v>
       </c>
@@ -6832,8 +8374,14 @@
       <c r="C335" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D335" t="s">
+        <v>859</v>
+      </c>
+      <c r="E335" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>660</v>
       </c>
@@ -6843,8 +8391,14 @@
       <c r="C336" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D336" t="s">
+        <v>859</v>
+      </c>
+      <c r="E336" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>662</v>
       </c>
@@ -6854,8 +8408,14 @@
       <c r="C337" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D337" t="s">
+        <v>859</v>
+      </c>
+      <c r="E337" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>663</v>
       </c>
@@ -6865,8 +8425,14 @@
       <c r="C338" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D338" t="s">
+        <v>859</v>
+      </c>
+      <c r="E338" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>664</v>
       </c>
@@ -6876,8 +8442,14 @@
       <c r="C339" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D339" t="s">
+        <v>859</v>
+      </c>
+      <c r="E339" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>665</v>
       </c>
@@ -6887,8 +8459,14 @@
       <c r="C340" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D340" t="s">
+        <v>859</v>
+      </c>
+      <c r="E340" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>667</v>
       </c>
@@ -6898,8 +8476,14 @@
       <c r="C341" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D341" t="s">
+        <v>859</v>
+      </c>
+      <c r="E341" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>669</v>
       </c>
@@ -6909,8 +8493,14 @@
       <c r="C342" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D342" t="s">
+        <v>859</v>
+      </c>
+      <c r="E342" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>670</v>
       </c>
@@ -6920,8 +8510,14 @@
       <c r="C343" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D343" t="s">
+        <v>859</v>
+      </c>
+      <c r="E343" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>672</v>
       </c>
@@ -6931,8 +8527,14 @@
       <c r="C344" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D344" t="s">
+        <v>859</v>
+      </c>
+      <c r="E344" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>674</v>
       </c>
@@ -6942,8 +8544,14 @@
       <c r="C345" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D345" t="s">
+        <v>859</v>
+      </c>
+      <c r="E345" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>676</v>
       </c>
@@ -6953,8 +8561,14 @@
       <c r="C346" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D346" t="s">
+        <v>859</v>
+      </c>
+      <c r="E346" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>678</v>
       </c>
@@ -6964,8 +8578,14 @@
       <c r="C347" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D347" t="s">
+        <v>859</v>
+      </c>
+      <c r="E347" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>680</v>
       </c>
@@ -6975,8 +8595,14 @@
       <c r="C348" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D348" t="s">
+        <v>859</v>
+      </c>
+      <c r="E348" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>682</v>
       </c>
@@ -6986,8 +8612,14 @@
       <c r="C349" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D349" t="s">
+        <v>859</v>
+      </c>
+      <c r="E349" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>684</v>
       </c>
@@ -6997,8 +8629,14 @@
       <c r="C350" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D350" t="s">
+        <v>859</v>
+      </c>
+      <c r="E350" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>686</v>
       </c>
@@ -7008,8 +8646,14 @@
       <c r="C351" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D351" t="s">
+        <v>859</v>
+      </c>
+      <c r="E351" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>688</v>
       </c>
@@ -7019,8 +8663,14 @@
       <c r="C352" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D352" t="s">
+        <v>859</v>
+      </c>
+      <c r="E352" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>690</v>
       </c>
@@ -7030,8 +8680,14 @@
       <c r="C353" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D353" t="s">
+        <v>859</v>
+      </c>
+      <c r="E353" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>692</v>
       </c>
@@ -7041,8 +8697,14 @@
       <c r="C354" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D354" t="s">
+        <v>859</v>
+      </c>
+      <c r="E354" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>775</v>
       </c>
@@ -7052,8 +8714,14 @@
       <c r="C355" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D355" t="s">
+        <v>861</v>
+      </c>
+      <c r="E355" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>776</v>
       </c>
@@ -7063,8 +8731,14 @@
       <c r="C356" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D356" t="s">
+        <v>861</v>
+      </c>
+      <c r="E356" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>777</v>
       </c>
@@ -7074,8 +8748,14 @@
       <c r="C357" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D357" t="s">
+        <v>861</v>
+      </c>
+      <c r="E357" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>778</v>
       </c>
@@ -7085,8 +8765,14 @@
       <c r="C358" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D358" t="s">
+        <v>861</v>
+      </c>
+      <c r="E358" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>779</v>
       </c>
@@ -7096,8 +8782,14 @@
       <c r="C359" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D359" t="s">
+        <v>860</v>
+      </c>
+      <c r="E359" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>780</v>
       </c>
@@ -7107,8 +8799,14 @@
       <c r="C360" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D360" t="s">
+        <v>859</v>
+      </c>
+      <c r="E360" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>781</v>
       </c>
@@ -7118,8 +8816,14 @@
       <c r="C361" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D361" t="s">
+        <v>859</v>
+      </c>
+      <c r="E361" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>782</v>
       </c>
@@ -7129,8 +8833,14 @@
       <c r="C362" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D362" t="s">
+        <v>859</v>
+      </c>
+      <c r="E362" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>783</v>
       </c>
@@ -7140,8 +8850,14 @@
       <c r="C363" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D363" t="s">
+        <v>858</v>
+      </c>
+      <c r="E363" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>784</v>
       </c>
@@ -7151,8 +8867,14 @@
       <c r="C364" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D364" t="s">
+        <v>859</v>
+      </c>
+      <c r="E364" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>785</v>
       </c>
@@ -7162,8 +8884,14 @@
       <c r="C365" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D365" t="s">
+        <v>862</v>
+      </c>
+      <c r="E365" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>786</v>
       </c>
@@ -7173,8 +8901,14 @@
       <c r="C366" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D366" t="s">
+        <v>862</v>
+      </c>
+      <c r="E366" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>787</v>
       </c>
@@ -7184,8 +8918,14 @@
       <c r="C367" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D367" t="s">
+        <v>858</v>
+      </c>
+      <c r="E367" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>788</v>
       </c>
@@ -7195,8 +8935,14 @@
       <c r="C368" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D368" t="s">
+        <v>862</v>
+      </c>
+      <c r="E368" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>789</v>
       </c>
@@ -7206,8 +8952,14 @@
       <c r="C369" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D369" t="s">
+        <v>858</v>
+      </c>
+      <c r="E369" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>790</v>
       </c>
@@ -7217,8 +8969,14 @@
       <c r="C370" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D370" t="s">
+        <v>862</v>
+      </c>
+      <c r="E370" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>791</v>
       </c>
@@ -7228,8 +8986,14 @@
       <c r="C371" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D371" t="s">
+        <v>862</v>
+      </c>
+      <c r="E371" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>792</v>
       </c>
@@ -7239,8 +9003,14 @@
       <c r="C372" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D372" t="s">
+        <v>859</v>
+      </c>
+      <c r="E372" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>793</v>
       </c>
@@ -7250,8 +9020,14 @@
       <c r="C373" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D373" t="s">
+        <v>860</v>
+      </c>
+      <c r="E373" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>794</v>
       </c>
@@ -7261,8 +9037,14 @@
       <c r="C374" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D374" t="s">
+        <v>860</v>
+      </c>
+      <c r="E374" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>795</v>
       </c>
@@ -7272,8 +9054,14 @@
       <c r="C375" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D375" t="s">
+        <v>860</v>
+      </c>
+      <c r="E375" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>796</v>
       </c>
@@ -7283,8 +9071,14 @@
       <c r="C376" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D376" t="s">
+        <v>860</v>
+      </c>
+      <c r="E376" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>797</v>
       </c>
@@ -7294,8 +9088,14 @@
       <c r="C377" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D377" t="s">
+        <v>861</v>
+      </c>
+      <c r="E377" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>798</v>
       </c>
@@ -7305,8 +9105,14 @@
       <c r="C378" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D378" t="s">
+        <v>861</v>
+      </c>
+      <c r="E378" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>799</v>
       </c>
@@ -7316,8 +9122,14 @@
       <c r="C379" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D379" t="s">
+        <v>858</v>
+      </c>
+      <c r="E379" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>800</v>
       </c>
@@ -7327,8 +9139,14 @@
       <c r="C380" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D380" t="s">
+        <v>861</v>
+      </c>
+      <c r="E380" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>801</v>
       </c>
@@ -7338,8 +9156,14 @@
       <c r="C381" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D381" t="s">
+        <v>858</v>
+      </c>
+      <c r="E381" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>802</v>
       </c>
@@ -7349,8 +9173,14 @@
       <c r="C382" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D382" t="s">
+        <v>862</v>
+      </c>
+      <c r="E382" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>803</v>
       </c>
@@ -7360,8 +9190,14 @@
       <c r="C383" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D383" t="s">
+        <v>862</v>
+      </c>
+      <c r="E383" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>804</v>
       </c>
@@ -7371,8 +9207,14 @@
       <c r="C384" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D384" t="s">
+        <v>859</v>
+      </c>
+      <c r="E384" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>805</v>
       </c>
@@ -7382,8 +9224,14 @@
       <c r="C385" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D385" t="s">
+        <v>859</v>
+      </c>
+      <c r="E385" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>806</v>
       </c>
@@ -7393,8 +9241,14 @@
       <c r="C386" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D386" t="s">
+        <v>860</v>
+      </c>
+      <c r="E386" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>807</v>
       </c>
@@ -7404,8 +9258,14 @@
       <c r="C387" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D387" t="s">
+        <v>860</v>
+      </c>
+      <c r="E387" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>808</v>
       </c>
@@ -7415,8 +9275,14 @@
       <c r="C388" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D388" t="s">
+        <v>859</v>
+      </c>
+      <c r="E388" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>809</v>
       </c>
@@ -7426,8 +9292,14 @@
       <c r="C389" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D389" t="s">
+        <v>861</v>
+      </c>
+      <c r="E389" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>810</v>
       </c>
@@ -7437,8 +9309,14 @@
       <c r="C390" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D390" t="s">
+        <v>861</v>
+      </c>
+      <c r="E390" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>811</v>
       </c>
@@ -7448,8 +9326,14 @@
       <c r="C391" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D391" t="s">
+        <v>861</v>
+      </c>
+      <c r="E391" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>812</v>
       </c>
@@ -7459,8 +9343,14 @@
       <c r="C392" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D392" t="s">
+        <v>861</v>
+      </c>
+      <c r="E392" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>813</v>
       </c>
@@ -7470,8 +9360,14 @@
       <c r="C393" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D393" t="s">
+        <v>861</v>
+      </c>
+      <c r="E393" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>814</v>
       </c>
@@ -7481,8 +9377,14 @@
       <c r="C394" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D394" t="s">
+        <v>861</v>
+      </c>
+      <c r="E394" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>815</v>
       </c>
@@ -7492,8 +9394,14 @@
       <c r="C395" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D395" t="s">
+        <v>861</v>
+      </c>
+      <c r="E395" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>816</v>
       </c>
@@ -7503,8 +9411,14 @@
       <c r="C396" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D396" t="s">
+        <v>859</v>
+      </c>
+      <c r="E396" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>817</v>
       </c>
@@ -7514,8 +9428,14 @@
       <c r="C397" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D397" t="s">
+        <v>862</v>
+      </c>
+      <c r="E397" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>818</v>
       </c>
@@ -7525,8 +9445,14 @@
       <c r="C398" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D398" t="s">
+        <v>858</v>
+      </c>
+      <c r="E398" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>819</v>
       </c>
@@ -7536,8 +9462,14 @@
       <c r="C399" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D399" t="s">
+        <v>860</v>
+      </c>
+      <c r="E399" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>820</v>
       </c>
@@ -7547,8 +9479,14 @@
       <c r="C400" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D400" t="s">
+        <v>863</v>
+      </c>
+      <c r="E400" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>821</v>
       </c>
@@ -7558,8 +9496,14 @@
       <c r="C401" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D401" t="s">
+        <v>861</v>
+      </c>
+      <c r="E401" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>822</v>
       </c>
@@ -7569,8 +9513,14 @@
       <c r="C402" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D402" t="s">
+        <v>861</v>
+      </c>
+      <c r="E402" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>823</v>
       </c>
@@ -7580,8 +9530,14 @@
       <c r="C403" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D403" t="s">
+        <v>861</v>
+      </c>
+      <c r="E403" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>824</v>
       </c>
@@ -7591,8 +9547,14 @@
       <c r="C404" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D404" t="s">
+        <v>861</v>
+      </c>
+      <c r="E404" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>825</v>
       </c>
@@ -7602,8 +9564,14 @@
       <c r="C405" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D405" t="s">
+        <v>861</v>
+      </c>
+      <c r="E405" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>826</v>
       </c>
@@ -7613,8 +9581,14 @@
       <c r="C406" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D406" t="s">
+        <v>864</v>
+      </c>
+      <c r="E406" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>827</v>
       </c>
@@ -7624,8 +9598,14 @@
       <c r="C407" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D407" t="s">
+        <v>861</v>
+      </c>
+      <c r="E407" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>828</v>
       </c>
@@ -7635,8 +9615,14 @@
       <c r="C408" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D408" t="s">
+        <v>861</v>
+      </c>
+      <c r="E408" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>829</v>
       </c>
@@ -7646,8 +9632,14 @@
       <c r="C409" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D409" t="s">
+        <v>865</v>
+      </c>
+      <c r="E409" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>830</v>
       </c>
@@ -7657,8 +9649,14 @@
       <c r="C410" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D410" t="s">
+        <v>861</v>
+      </c>
+      <c r="E410" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>831</v>
       </c>
@@ -7668,8 +9666,14 @@
       <c r="C411" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D411" t="s">
+        <v>861</v>
+      </c>
+      <c r="E411" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>832</v>
       </c>
@@ -7679,8 +9683,14 @@
       <c r="C412" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D412" t="s">
+        <v>862</v>
+      </c>
+      <c r="E412" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>833</v>
       </c>
@@ -7690,8 +9700,14 @@
       <c r="C413" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D413" t="s">
+        <v>859</v>
+      </c>
+      <c r="E413" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>834</v>
       </c>
@@ -7701,8 +9717,14 @@
       <c r="C414" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D414" t="s">
+        <v>858</v>
+      </c>
+      <c r="E414" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>835</v>
       </c>
@@ -7712,8 +9734,14 @@
       <c r="C415" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D415" t="s">
+        <v>860</v>
+      </c>
+      <c r="E415" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>836</v>
       </c>
@@ -7723,8 +9751,14 @@
       <c r="C416" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D416" t="s">
+        <v>861</v>
+      </c>
+      <c r="E416" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>837</v>
       </c>
@@ -7734,8 +9768,14 @@
       <c r="C417" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D417" t="s">
+        <v>861</v>
+      </c>
+      <c r="E417" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>838</v>
       </c>
@@ -7745,8 +9785,14 @@
       <c r="C418" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D418" t="s">
+        <v>861</v>
+      </c>
+      <c r="E418" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>839</v>
       </c>
@@ -7756,8 +9802,14 @@
       <c r="C419" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D419" t="s">
+        <v>861</v>
+      </c>
+      <c r="E419" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>840</v>
       </c>
@@ -7767,8 +9819,14 @@
       <c r="C420" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D420" t="s">
+        <v>865</v>
+      </c>
+      <c r="E420" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>841</v>
       </c>
@@ -7778,8 +9836,14 @@
       <c r="C421" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D421" t="s">
+        <v>866</v>
+      </c>
+      <c r="E421" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>842</v>
       </c>
@@ -7789,8 +9853,14 @@
       <c r="C422" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D422" t="s">
+        <v>861</v>
+      </c>
+      <c r="E422" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>843</v>
       </c>
@@ -7800,8 +9870,14 @@
       <c r="C423" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D423" t="s">
+        <v>861</v>
+      </c>
+      <c r="E423" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>844</v>
       </c>
@@ -7811,8 +9887,14 @@
       <c r="C424" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D424" t="s">
+        <v>861</v>
+      </c>
+      <c r="E424" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>845</v>
       </c>
@@ -7822,8 +9904,14 @@
       <c r="C425" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D425" t="s">
+        <v>861</v>
+      </c>
+      <c r="E425" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>846</v>
       </c>
@@ -7833,8 +9921,14 @@
       <c r="C426" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D426" t="s">
+        <v>861</v>
+      </c>
+      <c r="E426" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>847</v>
       </c>
@@ -7844,8 +9938,14 @@
       <c r="C427" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D427" t="s">
+        <v>861</v>
+      </c>
+      <c r="E427" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>848</v>
       </c>
@@ -7855,8 +9955,14 @@
       <c r="C428" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D428" t="s">
+        <v>861</v>
+      </c>
+      <c r="E428" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>849</v>
       </c>
@@ -7866,8 +9972,14 @@
       <c r="C429" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D429" t="s">
+        <v>861</v>
+      </c>
+      <c r="E429" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>850</v>
       </c>
@@ -7877,8 +9989,14 @@
       <c r="C430" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D430" t="s">
+        <v>861</v>
+      </c>
+      <c r="E430" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>851</v>
       </c>
@@ -7888,8 +10006,14 @@
       <c r="C431" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D431" t="s">
+        <v>861</v>
+      </c>
+      <c r="E431" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>852</v>
       </c>
@@ -7899,8 +10023,14 @@
       <c r="C432" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D432" t="s">
+        <v>861</v>
+      </c>
+      <c r="E432" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>853</v>
       </c>
@@ -7909,6 +10039,12 @@
       </c>
       <c r="C433" t="s">
         <v>695</v>
+      </c>
+      <c r="D433" t="s">
+        <v>861</v>
+      </c>
+      <c r="E433" t="s">
+        <v>861</v>
       </c>
     </row>
   </sheetData>
@@ -7927,15 +10063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006D2F792B2C2FCA45A88B5CBFF30092BB" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ddb8fb729929c6edb25f54d44222dd75">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d3612971-7074-4360-9f87-cc78d3d5baf3" xmlns:ns4="07fc68e4-df76-473b-bc31-cd735fc5182e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b64526c803f262cef564c279f2fd30f3" ns3:_="" ns4:_="">
     <xsd:import namespace="d3612971-7074-4360-9f87-cc78d3d5baf3"/>
@@ -8174,7 +10301,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_activity xmlns="d3612971-7074-4360-9f87-cc78d3d5baf3" xsi:nil="true"/>
@@ -8182,15 +10309,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC75FA51-704C-4576-B980-08689DB0A00E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99D8A768-C538-4CCD-89E5-A38BB1564687}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8209,7 +10337,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C1EE099-1A7C-4728-81D1-8CD444DE4445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="d3612971-7074-4360-9f87-cc78d3d5baf3"/>
@@ -8226,6 +10354,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC75FA51-704C-4576-B980-08689DB0A00E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{0a9b9e15-83d2-4075-9282-a04e05c6580a}" enabled="1" method="Standard" siteId="{24139d14-c62c-4c47-8bdd-ce71ea1d50cf}" removed="0"/>
